--- a/Leistungsdokumentation/Leistungsdokumentation_Leistungsdokument_-_FLorent_Tandjune.xlsx
+++ b/Leistungsdokumentation/Leistungsdokumentation_Leistungsdokument_-_FLorent_Tandjune.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cours\SEP_ss20\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cours\SEP_ss20\Abgabe_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E249EFC7-551A-4488-A29B-B1993DC6D492}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5008241F-0B98-431B-BC59-FF806C074D00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
   <si>
     <t>Student:</t>
   </si>
@@ -133,12 +133,54 @@
   </si>
   <si>
     <t xml:space="preserve">Bilder von GUI und Diagramm von der Zusammenhänge in Git hochgeladen </t>
+  </si>
+  <si>
+    <t>19:00 Uhr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einlesen von der Übungsblatt </t>
+  </si>
+  <si>
+    <t>14:00 Uhr</t>
+  </si>
+  <si>
+    <t>UML Kentnisse erfrieschen</t>
+  </si>
+  <si>
+    <t>Kentnisse erworben</t>
+  </si>
+  <si>
+    <t>21:00 Uhr</t>
+  </si>
+  <si>
+    <t>Installation des Programms UMLet</t>
+  </si>
+  <si>
+    <t>Verwendung von UMLet jetzt möglich</t>
+  </si>
+  <si>
+    <t>18:00 Uhr</t>
+  </si>
+  <si>
+    <t>Erstellung des UML-Class-Diagramms</t>
+  </si>
+  <si>
+    <t>10:30 Uhr</t>
+  </si>
+  <si>
+    <t>11:30 Uhr</t>
+  </si>
+  <si>
+    <t>Fertigstellung des UML-Class-Diagramms</t>
+  </si>
+  <si>
+    <t>fertig</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd&quot;.&quot;mm&quot;.&quot;yy"/>
     <numFmt numFmtId="165" formatCode="#,##0.00&quot; &quot;[$€-407];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$€-407]"/>
@@ -261,7 +303,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -293,13 +335,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Heading" xfId="1"/>
-    <cellStyle name="Heading1" xfId="2"/>
+    <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Heading1" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Result" xfId="3"/>
-    <cellStyle name="Result2" xfId="4"/>
+    <cellStyle name="Result" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Result2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -610,10 +658,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -816,44 +866,104 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="12"/>
+      <c r="A14" s="10">
+        <v>43966</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="12"/>
+      <c r="A15" s="10">
+        <v>43969</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="12"/>
+      <c r="A16" s="16">
+        <v>43971</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="12"/>
+      <c r="A17" s="16">
+        <v>43974</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="12"/>
+      <c r="A18" s="16">
+        <v>43976</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
@@ -921,7 +1031,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -941,7 +1051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Leistungsdokumentation/Leistungsdokumentation_Leistungsdokument_-_FLorent_Tandjune.xlsx
+++ b/Leistungsdokumentation/Leistungsdokumentation_Leistungsdokument_-_FLorent_Tandjune.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cours\SEP_ss20\Abgabe_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5008241F-0B98-431B-BC59-FF806C074D00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C570294-C3BF-44A1-A20A-68396BB465B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="64">
   <si>
     <t>Student:</t>
   </si>
@@ -138,9 +138,6 @@
     <t>19:00 Uhr</t>
   </si>
   <si>
-    <t xml:space="preserve">Einlesen von der Übungsblatt </t>
-  </si>
-  <si>
     <t>14:00 Uhr</t>
   </si>
   <si>
@@ -174,7 +171,49 @@
     <t>Fertigstellung des UML-Class-Diagramms</t>
   </si>
   <si>
-    <t>fertig</t>
+    <t xml:space="preserve">Einlesen von dem Übungsblatt </t>
+  </si>
+  <si>
+    <t>16:00 Uhr</t>
+  </si>
+  <si>
+    <t>Installation von JavaFX SDK und lernen GUI zu erstellen</t>
+  </si>
+  <si>
+    <t>Erstellung von dem Grundgerüst</t>
+  </si>
+  <si>
+    <t>Fertigstellung von dem Grundgerüst</t>
+  </si>
+  <si>
+    <t>Verwendung von GanttProject jetzt möglich</t>
+  </si>
+  <si>
+    <t>Fertigstellung des Gantt-Diagramms</t>
+  </si>
+  <si>
+    <t>Installation des Programms Gnattproject und lernen Gantt Diagramm zu erstellen</t>
+  </si>
+  <si>
+    <t>19:30 Uhr</t>
+  </si>
+  <si>
+    <t>Implementierung des Logins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:00 Uhr </t>
+  </si>
+  <si>
+    <t>22.00 Uhr</t>
+  </si>
+  <si>
+    <t>09:30 Uhr</t>
+  </si>
+  <si>
+    <t>Ferstigsellung des Logins</t>
+  </si>
+  <si>
+    <t>Implementierung des Logins(SQL)</t>
   </si>
 </sst>
 </file>
@@ -230,7 +269,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -240,28 +279,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -282,13 +299,76 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -303,44 +383,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -659,16 +737,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F25"/>
+  <dimension ref="A2:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="14.19921875" customWidth="1"/>
-    <col min="4" max="4" width="75.59765625" customWidth="1"/>
+    <col min="4" max="4" width="76.8984375" customWidth="1"/>
     <col min="5" max="5" width="56.69921875" customWidth="1"/>
     <col min="6" max="6" width="37.796875" customWidth="1"/>
     <col min="7" max="7" width="11.19921875" customWidth="1"/>
@@ -685,344 +763,475 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
     <row r="5" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="A6" s="12">
         <v>43945</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="A7" s="12">
         <v>43948</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+      <c r="A8" s="12">
         <v>43949</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+      <c r="A9" s="12">
         <v>43951</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+      <c r="A10" s="12">
         <v>43954</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="A11" s="12">
         <v>43955</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+      <c r="A12" s="12">
         <v>43956</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
+      <c r="A13" s="12">
         <v>43956</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
+      <c r="A14" s="12">
         <v>43966</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
+        <v>43969</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="C15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14">
+        <v>43971</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14">
+        <v>43974</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="14">
+        <v>43976</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F18" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
-        <v>43969</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="12" t="s">
+    <row r="19" spans="1:6" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="14">
+        <v>43978</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14">
+        <v>43981</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14">
+        <v>43990</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="14">
+        <v>43997</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14">
+        <v>43999</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14">
+        <v>44000</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16">
-        <v>43971</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16">
-        <v>43974</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="14" t="s">
+      <c r="C24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14">
+        <v>44002</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16">
-        <v>43976</v>
-      </c>
-      <c r="B18" s="11" t="s">
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="14">
+        <v>44003</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="14">
+        <v>44004</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="1:6" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="1:6" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="12"/>
-    </row>
-    <row r="22" spans="1:6" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="12"/>
-    </row>
-    <row r="23" spans="1:6" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="12"/>
-    </row>
-    <row r="24" spans="1:6" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="12"/>
-    </row>
-    <row r="25" spans="1:6" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="12"/>
+      <c r="D27" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39409448818897608" bottom="0.39409448818897608" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CSeite &amp;P</oddFooter>

--- a/Leistungsdokumentation/Leistungsdokumentation_Leistungsdokument_-_FLorent_Tandjune.xlsx
+++ b/Leistungsdokumentation/Leistungsdokumentation_Leistungsdokument_-_FLorent_Tandjune.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cours\SEP_ss20\Abgabe_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amr Atta\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C570294-C3BF-44A1-A20A-68396BB465B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C532A25-FA39-4200-B770-C5E04FD4C5DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="67">
   <si>
     <t>Student:</t>
   </si>
@@ -210,10 +210,19 @@
     <t>09:30 Uhr</t>
   </si>
   <si>
-    <t>Ferstigsellung des Logins</t>
-  </si>
-  <si>
     <t>Implementierung des Logins(SQL)</t>
+  </si>
+  <si>
+    <t>23.-14.07.2020</t>
+  </si>
+  <si>
+    <t>GUI fertig, Systemstest fertigen, Verbindung zwiscen Server und Client Rechner erstellt</t>
+  </si>
+  <si>
+    <t>Manuela</t>
+  </si>
+  <si>
+    <t>Ferstigsellung des Logins und Lobbychats</t>
   </si>
 </sst>
 </file>
@@ -224,7 +233,7 @@
     <numFmt numFmtId="164" formatCode="dd&quot;.&quot;mm&quot;.&quot;yy"/>
     <numFmt numFmtId="165" formatCode="#,##0.00&quot; &quot;[$€-407];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$€-407]"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -256,6 +265,12 @@
     </font>
     <font>
       <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -383,7 +398,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -419,13 +434,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Heading1" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Result" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Result2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -441,7 +457,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -737,22 +753,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F29"/>
+  <dimension ref="A2:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="14.19921875" customWidth="1"/>
-    <col min="4" max="4" width="76.8984375" customWidth="1"/>
-    <col min="5" max="5" width="56.69921875" customWidth="1"/>
-    <col min="6" max="6" width="37.796875" customWidth="1"/>
-    <col min="7" max="7" width="11.19921875" customWidth="1"/>
+    <col min="1" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="76.875" customWidth="1"/>
+    <col min="5" max="5" width="56.75" customWidth="1"/>
+    <col min="6" max="6" width="37.75" customWidth="1"/>
+    <col min="7" max="7" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -763,7 +779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -771,7 +787,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>3</v>
       </c>
@@ -791,7 +807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="42.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>43945</v>
       </c>
@@ -811,7 +827,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="42.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>43948</v>
       </c>
@@ -831,7 +847,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="42.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>43949</v>
       </c>
@@ -851,7 +867,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="42.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>43951</v>
       </c>
@@ -871,7 +887,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="42.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>43954</v>
       </c>
@@ -891,7 +907,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="42.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>43955</v>
       </c>
@@ -911,7 +927,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="42.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>43956</v>
       </c>
@@ -931,7 +947,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="42.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>43956</v>
       </c>
@@ -951,7 +967,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="42.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>43966</v>
       </c>
@@ -971,7 +987,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="42.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>43969</v>
       </c>
@@ -991,7 +1007,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="42.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>43971</v>
       </c>
@@ -1011,7 +1027,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="42.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>43974</v>
       </c>
@@ -1031,7 +1047,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="42.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>43976</v>
       </c>
@@ -1051,7 +1067,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="42.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>43978</v>
       </c>
@@ -1067,9 +1083,11 @@
       <c r="E19" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="42.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>43981</v>
       </c>
@@ -1085,9 +1103,11 @@
       <c r="E20" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="42.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>43990</v>
       </c>
@@ -1103,9 +1123,11 @@
       <c r="E21" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="42.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>43997</v>
       </c>
@@ -1121,9 +1143,11 @@
       <c r="E22" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F22" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="42.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>43999</v>
       </c>
@@ -1139,9 +1163,11 @@
       <c r="E23" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="42.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>44000</v>
       </c>
@@ -1157,9 +1183,11 @@
       <c r="E24" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:6" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F24" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="42.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>44002</v>
       </c>
@@ -1170,14 +1198,16 @@
         <v>18</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F25" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>44003</v>
       </c>
@@ -1193,9 +1223,11 @@
       <c r="E26" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F26" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>44004</v>
       </c>
@@ -1206,22 +1238,34 @@
         <v>47</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
+      <c r="F27" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="E28" s="11"/>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1229,6 +1273,14 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
+    <row r="30" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="42" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="41.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="43.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="44.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="43.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39409448818897608" bottom="0.39409448818897608" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1245,10 +1297,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.69921875" customWidth="1"/>
-    <col min="2" max="2" width="11.19921875" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="11.25" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0" right="0" top="0.39409448818897608" bottom="0.39409448818897608" header="0" footer="0"/>
@@ -1265,10 +1317,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.69921875" customWidth="1"/>
-    <col min="2" max="2" width="11.19921875" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="11.25" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0" right="0" top="0.39409448818897608" bottom="0.39409448818897608" header="0" footer="0"/>
